--- a/misc/scripts/parsers/data/countries.xlsx
+++ b/misc/scripts/parsers/data/countries.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Desktop\Social-network\misc\scripts\parsers\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8581DBF4-E37D-404F-9AC4-1505DA86BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0CD327-063E-4FCB-AF67-45DADC60355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_countries2" sheetId="1" r:id="rId1"/>
+    <sheet name="ID - TITLE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">_countries2!$A$1:$A$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ID - TITLE'!$A$1:$A$234</definedName>
   </definedNames>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1613,10 +1613,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -3500,7 +3500,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A235">
+  <autoFilter ref="A1:A235" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B235">
       <sortCondition ref="A1:A235"/>
     </sortState>
